--- a/test-sceanrios/Assignment_BB.xlsx
+++ b/test-sceanrios/Assignment_BB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>S. No.</t>
   </si>
@@ -215,9 +215,6 @@
 Then user can see required fields are highligted</t>
   </si>
   <si>
-    <t>Regression case</t>
-  </si>
-  <si>
     <t>Sorting</t>
   </si>
   <si>
@@ -242,6 +239,15 @@
   <si>
     <t xml:space="preserve">User text to filter which has records less than 10
 </t>
+  </si>
+  <si>
+    <t>Test type</t>
+  </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>Manual and Regression case</t>
   </si>
 </sst>
 </file>
@@ -645,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -667,7 +673,9 @@
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
@@ -691,7 +699,9 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4"/>
@@ -707,7 +717,9 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4"/>
@@ -723,7 +735,9 @@
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
@@ -741,7 +755,9 @@
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
@@ -761,7 +777,9 @@
       <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
@@ -782,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>30</v>
@@ -803,7 +821,9 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
@@ -823,7 +843,9 @@
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="7" t="s">
         <v>6</v>
       </c>
@@ -841,7 +863,9 @@
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
@@ -859,7 +883,9 @@
       <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" s="5" t="s">
         <v>35</v>
       </c>
@@ -880,7 +906,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>31</v>
@@ -901,7 +927,9 @@
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
@@ -922,7 +950,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>31</v>
@@ -941,11 +969,13 @@
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
@@ -963,7 +993,9 @@
       <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E16" s="5" t="s">
         <v>22</v>
       </c>
@@ -983,7 +1015,9 @@
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E17" s="5" t="s">
         <v>22</v>
       </c>
@@ -998,14 +1032,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
